--- a/Data/EC/NIT-8904806053.xlsx
+++ b/Data/EC/NIT-8904806053.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E75E436-2F25-420C-888F-795319C89DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{221E14BC-BEA2-4431-BC54-B28046024BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F8529475-80CD-4346-B896-C3C3E817FC1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{570C8EFB-B9A3-4EE7-BBF3-D658001DB8D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="59">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,130 +71,115 @@
     <t>DAVID ORTIZ NEGRETE</t>
   </si>
   <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
     <t>1712</t>
   </si>
   <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1047441173</t>
-  </si>
-  <si>
-    <t>NEIVIS MARQUEZ GUERRERO</t>
+    <t>1002198802</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS LUNA MAQUILON</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>1123627430</t>
+  </si>
+  <si>
+    <t>MAICOL CEBALLOS KELLY</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>73559128</t>
-  </si>
-  <si>
-    <t>YIMIS DE JESUS TEHERAN ORTIZ</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>1123627430</t>
-  </si>
-  <si>
-    <t>MAICOL CEBALLOS KELLY</t>
-  </si>
-  <si>
-    <t>1002198802</t>
-  </si>
-  <si>
-    <t>ROBERTO CARLOS LUNA MAQUILON</t>
-  </si>
-  <si>
-    <t>2212</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -293,7 +278,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -306,9 +293,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -508,23 +493,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,10 +537,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,7 +593,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA924BA-E8F3-8038-3741-1F096CA2668D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD2C2D83-FA5B-920C-918C-115767382E2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,8 +944,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD99C04D-9E16-4464-A461-64C3F0C94EA0}">
-  <dimension ref="B2:J78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8E6CA3-444C-4545-BFC6-1E01249F2798}">
+  <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -984,7 +969,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1029,7 +1014,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1061,12 +1046,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2444759</v>
+        <v>1336759</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1077,17 +1062,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F13" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1114,13 +1099,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1140,7 +1125,7 @@
         <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1163,7 +1148,7 @@
         <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1186,7 +1171,7 @@
         <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1209,7 +1194,7 @@
         <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1232,7 +1217,7 @@
         <v>27578</v>
       </c>
       <c r="G20" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1255,7 +1240,7 @@
         <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1278,7 +1263,7 @@
         <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1301,7 +1286,7 @@
         <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1324,7 +1309,7 @@
         <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1347,7 +1332,7 @@
         <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1370,7 +1355,7 @@
         <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1393,7 +1378,7 @@
         <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1416,7 +1401,7 @@
         <v>27578</v>
       </c>
       <c r="G28" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1439,7 +1424,7 @@
         <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1459,7 +1444,7 @@
         <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>14667</v>
       </c>
       <c r="G30" s="18">
         <v>1160000</v>
@@ -1473,19 +1458,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1496,19 +1481,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1519,19 +1504,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1542,19 +1527,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G34" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1565,19 +1550,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1588,19 +1573,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G36" s="18">
-        <v>566700</v>
+        <v>1300000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1611,19 +1596,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G37" s="18">
-        <v>566700</v>
+        <v>1300000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1634,19 +1619,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G38" s="18">
-        <v>566700</v>
+        <v>1300000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1657,19 +1642,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>566700</v>
+        <v>1300000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1680,19 +1665,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G40" s="18">
-        <v>566700</v>
+        <v>1300000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1703,19 +1688,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G41" s="18">
-        <v>566700</v>
+        <v>1300000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1726,19 +1711,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G42" s="18">
-        <v>566700</v>
+        <v>1300000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1749,19 +1734,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G43" s="18">
-        <v>566700</v>
+        <v>1300000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1772,19 +1757,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F44" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G44" s="18">
-        <v>566700</v>
+        <v>1300000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1795,19 +1780,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G45" s="18">
-        <v>566700</v>
+        <v>1300000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1818,19 +1803,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F46" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="18">
-        <v>566700</v>
+        <v>1300000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1841,627 +1826,75 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F47" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G47" s="18">
-        <v>566700</v>
+        <v>1300000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G48" s="18">
-        <v>566700</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G49" s="18">
-        <v>566700</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G50" s="18">
-        <v>566700</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G51" s="18">
-        <v>566700</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G52" s="18">
-        <v>566700</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="B48" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G48" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G53" s="18">
-        <v>566700</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="B53" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="H53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G54" s="18">
-        <v>566700</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F61" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F62" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F64" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F65" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F68" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F70" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F71" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="24">
-        <v>14667</v>
-      </c>
-      <c r="G72" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="26"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77" s="32"/>
-      <c r="H77" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="H78" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="B54" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="H54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H53:J53"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
